--- a/xlsx/country_comparison/radical_redistr_extended_positive.xlsx
+++ b/xlsx/country_comparison/radical_redistr_extended_positive.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t xml:space="preserve">Japan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Russia</t>
   </si>
   <si>
     <t xml:space="preserve">Saudi Arabia</t>
@@ -64,11 +67,12 @@
     <t xml:space="preserve">Prefers sustainable future</t>
   </si>
   <si>
-    <t xml:space="preserve">"Governments should actively cooperate to have
-all countries converge in terms of GDP per capita by the end of the century"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Could sign a petition and spread ideas</t>
+    <t xml:space="preserve">"Governments should actively cooperate to have all countries
+converge in terms of GDP per capita by the end of the century"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Would support a global movement to tackle CC, tax millionaires,
+ and fund LICs (either petition, demonstrate, strike, or donate)</t>
   </si>
   <si>
     <t xml:space="preserve">More likely to vote for party if part of worldwide
@@ -451,13 +455,16 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.534311477915329</v>
+        <v>0.537951467268623</v>
       </c>
       <c r="C2" t="n">
         <v>0.588318584070797</v>
@@ -487,18 +494,21 @@
         <v>0.389856557970562</v>
       </c>
       <c r="L2" t="n">
+        <v>0.582306191819793</v>
+      </c>
+      <c r="M2" t="n">
         <v>0.68442794362766</v>
       </c>
-      <c r="M2" t="n">
-        <v>0.490702958585321</v>
+      <c r="N2" t="n">
+        <v>0.490668612212663</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.485714285714286</v>
+        <v>0.492862092862093</v>
       </c>
       <c r="C3" t="n">
         <v>0.535241502683363</v>
@@ -528,18 +538,21 @@
         <v>0.32128421797297</v>
       </c>
       <c r="L3" t="n">
+        <v>0.591124471229443</v>
+      </c>
+      <c r="M3" t="n">
         <v>0.666290156760115</v>
       </c>
-      <c r="M3" t="n">
-        <v>0.448265005497467</v>
+      <c r="N3" t="n">
+        <v>0.448211203307958</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.663122973686195</v>
+        <v>0.664778686805119</v>
       </c>
       <c r="C4" t="n">
         <v>0.680960854092527</v>
@@ -569,18 +582,21 @@
         <v>0.706011505764104</v>
       </c>
       <c r="L4" t="n">
+        <v>0.6876153744808</v>
+      </c>
+      <c r="M4" t="n">
         <v>0.666711263875173</v>
       </c>
-      <c r="M4" t="n">
-        <v>0.603018840065367</v>
+      <c r="N4" t="n">
+        <v>0.603123607121577</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>0.537133378571967</v>
+        <v>0.553737500874065</v>
       </c>
       <c r="C5" t="n">
         <v>0.611565836298932</v>
@@ -610,56 +626,60 @@
         <v>0.498450958769852</v>
       </c>
       <c r="L5" t="n">
+        <v>0.766211423943959</v>
+      </c>
+      <c r="M5" t="n">
         <v>0.572921342842471</v>
       </c>
-      <c r="M5" t="n">
-        <v>0.426203799857098</v>
+      <c r="N5" t="n">
+        <v>0.426115190401503</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>0.45329111060846</v>
+        <v>0.611777124330845</v>
       </c>
       <c r="C6" t="n">
-        <v>0.501067615658363</v>
+        <v>0.672953736654804</v>
       </c>
       <c r="D6" t="n">
-        <v>0.500322160552274</v>
+        <v>0.668600432112831</v>
       </c>
       <c r="E6" t="n">
-        <v>0.498797541405147</v>
+        <v>0.673402016569035</v>
       </c>
       <c r="F6" t="n">
-        <v>0.51486434687697</v>
+        <v>0.737070007431593</v>
       </c>
       <c r="G6" t="n">
-        <v>0.480350199835189</v>
+        <v>0.655329158659857</v>
       </c>
       <c r="H6" t="n">
-        <v>0.548905702320423</v>
+        <v>0.724297246090431</v>
       </c>
       <c r="I6" t="n">
-        <v>0.509455748738933</v>
+        <v>0.645148556496296</v>
       </c>
       <c r="J6" t="n">
-        <v>0.456199715104608</v>
+        <v>0.602999620241999</v>
       </c>
       <c r="K6" t="n">
-        <v>0.446983447126815</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.298037867404482</v>
-      </c>
+        <v>0.507428712494617</v>
+      </c>
+      <c r="L6"/>
       <c r="M6" t="n">
-        <v>0.447768510345408</v>
+        <v>0.55354536542297</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.612788981791228</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" t="n">
         <v>0.350712198685172</v>
@@ -692,13 +712,14 @@
         <v>0.217091601807433</v>
       </c>
       <c r="L7"/>
-      <c r="M7" t="n">
-        <v>0.370775166905477</v>
+      <c r="M7"/>
+      <c r="N7" t="n">
+        <v>0.370801286983423</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" t="n">
         <v>0.351261177098625</v>
@@ -725,16 +746,17 @@
       <c r="J8"/>
       <c r="K8"/>
       <c r="L8"/>
-      <c r="M8" t="n">
-        <v>0.300266595108652</v>
+      <c r="M8"/>
+      <c r="N8" t="n">
+        <v>0.300404564269368</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9" t="n">
-        <v>0.426743123078202</v>
+        <v>0.424604085379849</v>
       </c>
       <c r="C9" t="n">
         <v>0.437511888910025</v>
@@ -764,10 +786,13 @@
         <v>0.314322752209368</v>
       </c>
       <c r="L9" t="n">
+        <v>0.400915137390113</v>
+      </c>
+      <c r="M9" t="n">
         <v>0.653477703137907</v>
       </c>
-      <c r="M9" t="n">
-        <v>0.406297950136226</v>
+      <c r="N9" t="n">
+        <v>0.406101165624595</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/radical_redistr_extended_positive.xlsx
+++ b/xlsx/country_comparison/radical_redistr_extended_positive.xlsx
@@ -558,37 +558,37 @@
         <v>0.680960854092527</v>
       </c>
       <c r="D4" t="n">
-        <v>0.703421739255081</v>
+        <v>0.701612903225806</v>
       </c>
       <c r="E4" t="n">
-        <v>0.68701219464814</v>
+        <v>0.683610867659947</v>
       </c>
       <c r="F4" t="n">
-        <v>0.72909694938135</v>
+        <v>0.728285077951002</v>
       </c>
       <c r="G4" t="n">
-        <v>0.569764105372422</v>
+        <v>0.568822553897181</v>
       </c>
       <c r="H4" t="n">
-        <v>0.726504855911</v>
+        <v>0.726299694189602</v>
       </c>
       <c r="I4" t="n">
-        <v>0.672412949788013</v>
+        <v>0.667752442996743</v>
       </c>
       <c r="J4" t="n">
-        <v>0.653357988317707</v>
+        <v>0.65607476635514</v>
       </c>
       <c r="K4" t="n">
-        <v>0.706011505764104</v>
+        <v>0.706269349845201</v>
       </c>
       <c r="L4" t="n">
-        <v>0.6876153744808</v>
+        <v>0.685934489402698</v>
       </c>
       <c r="M4" t="n">
-        <v>0.666711263875173</v>
+        <v>0.668763102725367</v>
       </c>
       <c r="N4" t="n">
-        <v>0.603123607121577</v>
+        <v>0.602535832414553</v>
       </c>
     </row>
     <row r="5">
@@ -602,37 +602,37 @@
         <v>0.611565836298932</v>
       </c>
       <c r="D5" t="n">
-        <v>0.576391524303972</v>
+        <v>0.578341013824885</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6111956659185</v>
+        <v>0.609114811568799</v>
       </c>
       <c r="F5" t="n">
-        <v>0.683237385490521</v>
+        <v>0.682628062360802</v>
       </c>
       <c r="G5" t="n">
-        <v>0.681995327066417</v>
+        <v>0.681592039800995</v>
       </c>
       <c r="H5" t="n">
-        <v>0.698497778774273</v>
+        <v>0.697247706422018</v>
       </c>
       <c r="I5" t="n">
-        <v>0.51480902544306</v>
+        <v>0.51357220412595</v>
       </c>
       <c r="J5" t="n">
-        <v>0.535091205491473</v>
+        <v>0.536448598130841</v>
       </c>
       <c r="K5" t="n">
-        <v>0.498450958769852</v>
+        <v>0.498839009287926</v>
       </c>
       <c r="L5" t="n">
-        <v>0.766211423943959</v>
+        <v>0.765895953757225</v>
       </c>
       <c r="M5" t="n">
-        <v>0.572921342842471</v>
+        <v>0.590496156533892</v>
       </c>
       <c r="N5" t="n">
-        <v>0.426115190401503</v>
+        <v>0.42805953693495</v>
       </c>
     </row>
     <row r="6">
@@ -646,35 +646,35 @@
         <v>0.672953736654804</v>
       </c>
       <c r="D6" t="n">
-        <v>0.668600432112831</v>
+        <v>0.668202764976959</v>
       </c>
       <c r="E6" t="n">
-        <v>0.673402016569035</v>
+        <v>0.670464504820333</v>
       </c>
       <c r="F6" t="n">
-        <v>0.737070007431593</v>
+        <v>0.736080178173719</v>
       </c>
       <c r="G6" t="n">
-        <v>0.655329158659857</v>
+        <v>0.648424543946932</v>
       </c>
       <c r="H6" t="n">
-        <v>0.724297246090431</v>
+        <v>0.723241590214067</v>
       </c>
       <c r="I6" t="n">
-        <v>0.645148556496296</v>
+        <v>0.642779587404995</v>
       </c>
       <c r="J6" t="n">
-        <v>0.602999620241999</v>
+        <v>0.598130841121495</v>
       </c>
       <c r="K6" t="n">
-        <v>0.507428712494617</v>
+        <v>0.506191950464396</v>
       </c>
       <c r="L6"/>
       <c r="M6" t="n">
-        <v>0.55354536542297</v>
+        <v>0.560447239692523</v>
       </c>
       <c r="N6" t="n">
-        <v>0.612788981791228</v>
+        <v>0.612458654906284</v>
       </c>
     </row>
     <row r="7">
@@ -688,33 +688,33 @@
         <v>0.39870648658931</v>
       </c>
       <c r="D7" t="n">
-        <v>0.431546204389394</v>
+        <v>0.432038834951456</v>
       </c>
       <c r="E7" t="n">
-        <v>0.386040021908065</v>
+        <v>0.385531135531136</v>
       </c>
       <c r="F7" t="n">
         <v>0.479597303697709</v>
       </c>
       <c r="G7" t="n">
-        <v>0.287167476601508</v>
+        <v>0.287545787545788</v>
       </c>
       <c r="H7" t="n">
-        <v>0.43772759060628</v>
+        <v>0.437699680511182</v>
       </c>
       <c r="I7" t="n">
-        <v>0.395885893816819</v>
+        <v>0.394889663182346</v>
       </c>
       <c r="J7" t="n">
-        <v>0.325907437125978</v>
+        <v>0.323353293413174</v>
       </c>
       <c r="K7" t="n">
-        <v>0.217091601807433</v>
+        <v>0.216003316749585</v>
       </c>
       <c r="L7"/>
       <c r="M7"/>
       <c r="N7" t="n">
-        <v>0.370801286983423</v>
+        <v>0.372829728906488</v>
       </c>
     </row>
     <row r="8">
@@ -728,27 +728,27 @@
         <v>0.384560570071259</v>
       </c>
       <c r="D8" t="n">
-        <v>0.326868878117742</v>
+        <v>0.327669902912621</v>
       </c>
       <c r="E8" t="n">
-        <v>0.334505390580585</v>
+        <v>0.335164835164835</v>
       </c>
       <c r="F8" t="n">
         <v>0.535274410980465</v>
       </c>
       <c r="G8"/>
       <c r="H8" t="n">
-        <v>0.401939935801779</v>
+        <v>0.400958466453674</v>
       </c>
       <c r="I8" t="n">
-        <v>0.348746332347973</v>
+        <v>0.35075493612079</v>
       </c>
       <c r="J8"/>
       <c r="K8"/>
       <c r="L8"/>
       <c r="M8"/>
       <c r="N8" t="n">
-        <v>0.300404564269368</v>
+        <v>0.30855924459336</v>
       </c>
     </row>
     <row r="9">
@@ -762,37 +762,37 @@
         <v>0.437511888910025</v>
       </c>
       <c r="D9" t="n">
-        <v>0.328866922959613</v>
+        <v>0.327669902912621</v>
       </c>
       <c r="E9" t="n">
-        <v>0.453321796373249</v>
+        <v>0.451465201465201</v>
       </c>
       <c r="F9" t="n">
         <v>0.513351118669645</v>
       </c>
       <c r="G9" t="n">
-        <v>0.41080678800161</v>
+        <v>0.41025641025641</v>
       </c>
       <c r="H9" t="n">
-        <v>0.500387925343261</v>
+        <v>0.501597444089457</v>
       </c>
       <c r="I9" t="n">
-        <v>0.450348125937886</v>
+        <v>0.451800232288037</v>
       </c>
       <c r="J9" t="n">
-        <v>0.388060989658246</v>
+        <v>0.389221556886228</v>
       </c>
       <c r="K9" t="n">
-        <v>0.314322752209368</v>
+        <v>0.313432835820896</v>
       </c>
       <c r="L9" t="n">
-        <v>0.400915137390113</v>
+        <v>0.39980732177264</v>
       </c>
       <c r="M9" t="n">
         <v>0.653477703137907</v>
       </c>
       <c r="N9" t="n">
-        <v>0.406101165624595</v>
+        <v>0.411513859275053</v>
       </c>
     </row>
   </sheetData>
